--- a/Data/Input/Summary.xlsx
+++ b/Data/Input/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOT-DEV-012\Documents\UiPath\Email_To_Case_Latest\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2E582A-9BCF-4244-84E4-54939ECCA312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1D003-971A-48CA-A93E-13760E687C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Subject Line</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Classification subType</t>
+  </si>
+  <si>
+    <t>Mail Account</t>
   </si>
 </sst>
 </file>
@@ -425,18 +428,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645559A-9F01-456F-AEF3-9FE9D6EDF41D}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20.5703125" style="1"/>
+    <col min="1" max="3" width="20.5703125" style="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,9 +497,13 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>